--- a/User_Inputs.xlsx
+++ b/User_Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diane_lab\simple_model\generic_crop_model_project\Git_OOD\Generic-Object-Oriented-Plant-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A720C773-EED6-41C9-91F2-90274CF50290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294875FC-6BA4-4CF7-9FCF-84454EA2D0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{6CB13956-ACFD-45EF-A623-5DC9742C36B6}"/>
   </bookViews>
@@ -629,8 +629,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -901,7 +901,7 @@
         <v>51</v>
       </c>
       <c r="B33">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -909,7 +909,7 @@
         <v>52</v>
       </c>
       <c r="B34">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">

--- a/User_Inputs.xlsx
+++ b/User_Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diane_lab\simple_model\generic_crop_model_project\Git_OOD\Generic-Object-Oriented-Plant-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294875FC-6BA4-4CF7-9FCF-84454EA2D0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0B86C3-64AE-4BF4-9969-C10C64F49B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{6CB13956-ACFD-45EF-A623-5DC9742C36B6}"/>
   </bookViews>
@@ -629,8 +629,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">

--- a/User_Inputs.xlsx
+++ b/User_Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diane_lab\simple_model\generic_crop_model_project\Git_OOD\Generic-Object-Oriented-Plant-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0B86C3-64AE-4BF4-9969-C10C64F49B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B25D28-BC3A-4E49-AC02-9852BCAF6A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{6CB13956-ACFD-45EF-A623-5DC9742C36B6}"/>
   </bookViews>
@@ -630,7 +630,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
